--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam23</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.534912333333333</v>
+      </c>
+      <c r="H2">
+        <v>10.604737</v>
+      </c>
+      <c r="I2">
+        <v>0.9734411944552773</v>
+      </c>
+      <c r="J2">
+        <v>0.9821359806312981</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.1156076666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.346823</v>
-      </c>
-      <c r="I2">
-        <v>0.0262963554364261</v>
-      </c>
-      <c r="J2">
-        <v>0.02787250156631785</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q2">
-        <v>0.02069774152988889</v>
+        <v>0.3282767036596666</v>
       </c>
       <c r="R2">
-        <v>0.186279673769</v>
+        <v>2.954490332937</v>
       </c>
       <c r="S2">
-        <v>0.0001276847537115475</v>
+        <v>0.002929159335553451</v>
       </c>
       <c r="T2">
-        <v>0.0001456927874691588</v>
+        <v>0.003017080270298018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H3">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I3">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J3">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>85.851541</v>
       </c>
       <c r="O3">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P3">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q3">
-        <v>3.308365444915889</v>
+        <v>101.1592237055241</v>
       </c>
       <c r="R3">
-        <v>29.775289004243</v>
+        <v>910.4330133497169</v>
       </c>
       <c r="S3">
-        <v>0.02040936816279526</v>
+        <v>0.9026272080566827</v>
       </c>
       <c r="T3">
-        <v>0.02328780572220369</v>
+        <v>0.9297202469688961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H4">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I4">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J4">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N4">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O4">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P4">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q4">
-        <v>0.02135886323966666</v>
+        <v>0.8592028615646666</v>
       </c>
       <c r="R4">
-        <v>0.192229769157</v>
+        <v>7.732825754082</v>
       </c>
       <c r="S4">
-        <v>0.0001317632258754998</v>
+        <v>0.007666526607064867</v>
       </c>
       <c r="T4">
-        <v>0.0001503464674184811</v>
+        <v>0.007896643206512292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H5">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I5">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J5">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N5">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O5">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P5">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q5">
-        <v>0.9088832555271666</v>
+        <v>6.699339342290833</v>
       </c>
       <c r="R5">
-        <v>5.453299533162999</v>
+        <v>40.196036053745</v>
       </c>
       <c r="S5">
-        <v>0.005606917762836647</v>
+        <v>0.05977710924274376</v>
       </c>
       <c r="T5">
-        <v>0.00426512669802087</v>
+        <v>0.04104757628412517</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1156076666666667</v>
+        <v>3.534912333333333</v>
       </c>
       <c r="H6">
-        <v>0.346823</v>
+        <v>10.604737</v>
       </c>
       <c r="I6">
-        <v>0.0262963554364261</v>
+        <v>0.9734411944552773</v>
       </c>
       <c r="J6">
-        <v>0.02787250156631785</v>
+        <v>0.9821359806312981</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="N6">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="O6">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="P6">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="Q6">
-        <v>0.003342757145777778</v>
+        <v>0.04944517541455556</v>
       </c>
       <c r="R6">
-        <v>0.030084814312</v>
+        <v>0.445006578731</v>
       </c>
       <c r="S6">
-        <v>2.06215312071511E-05</v>
+        <v>0.0004411912132326498</v>
       </c>
       <c r="T6">
-        <v>2.352989120564344E-05</v>
+        <v>0.0004544339014666701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H7">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I7">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J7">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N7">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O7">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P7">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q7">
-        <v>0.632870672990111</v>
+        <v>0.008956511381499999</v>
       </c>
       <c r="R7">
-        <v>5.695836056911</v>
+        <v>0.053739068289</v>
       </c>
       <c r="S7">
-        <v>0.00390419099085336</v>
+        <v>7.991748617748412E-05</v>
       </c>
       <c r="T7">
-        <v>0.004454819011159365</v>
+        <v>5.487751334686702E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H8">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I8">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J8">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>85.851541</v>
       </c>
       <c r="O8">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P8">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q8">
-        <v>101.1592237055241</v>
+        <v>2.759969648658167</v>
       </c>
       <c r="R8">
-        <v>910.4330133497169</v>
+        <v>16.559817891949</v>
       </c>
       <c r="S8">
-        <v>0.6240531386402197</v>
+        <v>0.02462675776893555</v>
       </c>
       <c r="T8">
-        <v>0.7120665440039018</v>
+        <v>0.01691063236340358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0964445</v>
+      </c>
+      <c r="H9">
+        <v>0.192889</v>
+      </c>
+      <c r="I9">
+        <v>0.0265588055447227</v>
+      </c>
+      <c r="J9">
+        <v>0.01786401936870197</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.534912333333333</v>
-      </c>
-      <c r="H9">
-        <v>10.604737</v>
-      </c>
-      <c r="I9">
-        <v>0.8040583625129217</v>
-      </c>
-      <c r="J9">
-        <v>0.8522518651960477</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N9">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O9">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P9">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q9">
-        <v>0.6530856583203332</v>
+        <v>0.023441993059</v>
       </c>
       <c r="R9">
-        <v>5.877770924882999</v>
+        <v>0.140651958354</v>
       </c>
       <c r="S9">
-        <v>0.004028897612561077</v>
+        <v>0.0002091690700170313</v>
       </c>
       <c r="T9">
-        <v>0.004597113645438917</v>
+        <v>0.0001436316253256398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H10">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I10">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J10">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N10">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O10">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P10">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q10">
-        <v>27.79074020053283</v>
+        <v>0.18278089306625</v>
       </c>
       <c r="R10">
-        <v>166.744441203197</v>
+        <v>0.731123572265</v>
       </c>
       <c r="S10">
-        <v>0.1714415948639825</v>
+        <v>0.001630924014153807</v>
       </c>
       <c r="T10">
-        <v>0.1304139197924871</v>
+        <v>0.0007466121924446235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,371 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>3.534912333333333</v>
+        <v>0.0964445</v>
       </c>
       <c r="H11">
-        <v>10.604737</v>
+        <v>0.192889</v>
       </c>
       <c r="I11">
-        <v>0.8040583625129217</v>
+        <v>0.0265588055447227</v>
       </c>
       <c r="J11">
-        <v>0.8522518651960477</v>
+        <v>0.01786401936870197</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="N11">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="O11">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="P11">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="Q11">
-        <v>0.1022108118142222</v>
+        <v>0.001349033517833333</v>
       </c>
       <c r="R11">
-        <v>0.919897306328</v>
+        <v>0.008094201107</v>
       </c>
       <c r="S11">
-        <v>0.0006305404053050977</v>
+        <v>1.203720543883822E-05</v>
       </c>
       <c r="T11">
-        <v>0.0007194687430604707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.491636</v>
-      </c>
-      <c r="I12">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J12">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.1790343333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.537103</v>
-      </c>
-      <c r="O12">
-        <v>0.00485560647444994</v>
-      </c>
-      <c r="P12">
-        <v>0.00522711558998419</v>
-      </c>
-      <c r="Q12">
-        <v>0.133527028418</v>
-      </c>
-      <c r="R12">
-        <v>0.8011621705080001</v>
-      </c>
-      <c r="S12">
-        <v>0.000823730729885033</v>
-      </c>
-      <c r="T12">
-        <v>0.0006266037913556661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.491636</v>
-      </c>
-      <c r="I13">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J13">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>28.61718033333333</v>
-      </c>
-      <c r="N13">
-        <v>85.851541</v>
-      </c>
-      <c r="O13">
-        <v>0.7761291564580808</v>
-      </c>
-      <c r="P13">
-        <v>0.8355118634326505</v>
-      </c>
-      <c r="Q13">
-        <v>21.343208201846</v>
-      </c>
-      <c r="R13">
-        <v>128.059249211076</v>
-      </c>
-      <c r="S13">
-        <v>0.1316666496550659</v>
-      </c>
-      <c r="T13">
-        <v>0.1001575137065449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.491636</v>
-      </c>
-      <c r="I14">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J14">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.184753</v>
-      </c>
-      <c r="N14">
-        <v>0.5542589999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.005010702954409395</v>
-      </c>
-      <c r="P14">
-        <v>0.005394078714490605</v>
-      </c>
-      <c r="Q14">
-        <v>0.137792112954</v>
-      </c>
-      <c r="R14">
-        <v>0.8267526777240001</v>
-      </c>
-      <c r="S14">
-        <v>0.000850042115972818</v>
-      </c>
-      <c r="T14">
-        <v>0.0006466186016332065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H15">
-        <v>1.491636</v>
-      </c>
-      <c r="I15">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J15">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>7.8617905</v>
-      </c>
-      <c r="N15">
-        <v>15.723581</v>
-      </c>
-      <c r="O15">
-        <v>0.2132203368026377</v>
-      </c>
-      <c r="P15">
-        <v>0.1530227449399449</v>
-      </c>
-      <c r="Q15">
-        <v>5.863464867129</v>
-      </c>
-      <c r="R15">
-        <v>23.453859468516</v>
-      </c>
-      <c r="S15">
-        <v>0.03617182417581852</v>
-      </c>
-      <c r="T15">
-        <v>0.01834369844943691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7458180000000001</v>
-      </c>
-      <c r="H16">
-        <v>1.491636</v>
-      </c>
-      <c r="I16">
-        <v>0.1696452820506522</v>
-      </c>
-      <c r="J16">
-        <v>0.1198756332376345</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.02891466666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.086744</v>
-      </c>
-      <c r="O16">
-        <v>0.0007841973104221829</v>
-      </c>
-      <c r="P16">
-        <v>0.0008441973229298452</v>
-      </c>
-      <c r="Q16">
-        <v>0.021565078864</v>
-      </c>
-      <c r="R16">
-        <v>0.129390473184</v>
-      </c>
-      <c r="S16">
-        <v>0.0001330353739099341</v>
-      </c>
-      <c r="T16">
-        <v>0.000101198688663731</v>
+        <v>8.265674181264893E-06</v>
       </c>
     </row>
   </sheetData>
